--- a/BackTest/2019-10-29 BackTest AE.xlsx
+++ b/BackTest/2019-10-29 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-7602.807623703704</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-7522.098223703704</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-7135.780023703704</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-9171.553923703703</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,20 +1146,13 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>261</v>
-      </c>
-      <c r="K23" t="n">
-        <v>261</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1252,1086 +1177,920 @@
         <v>-14167.7499237037</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>261</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>261</v>
+      </c>
+      <c r="C25" t="n">
+        <v>261</v>
+      </c>
+      <c r="D25" t="n">
+        <v>261</v>
+      </c>
+      <c r="E25" t="n">
+        <v>261</v>
+      </c>
+      <c r="F25" t="n">
+        <v>570.2394</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-14737.9893237037</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>261</v>
+      </c>
+      <c r="C26" t="n">
+        <v>261</v>
+      </c>
+      <c r="D26" t="n">
+        <v>261</v>
+      </c>
+      <c r="E26" t="n">
+        <v>261</v>
+      </c>
+      <c r="F26" t="n">
+        <v>680</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-14737.9893237037</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>261</v>
+      </c>
+      <c r="C27" t="n">
+        <v>262</v>
+      </c>
+      <c r="D27" t="n">
+        <v>262</v>
+      </c>
+      <c r="E27" t="n">
+        <v>261</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11.5804</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-14726.4089237037</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>261</v>
+      </c>
+      <c r="C28" t="n">
+        <v>261</v>
+      </c>
+      <c r="D28" t="n">
+        <v>261</v>
+      </c>
+      <c r="E28" t="n">
+        <v>261</v>
+      </c>
+      <c r="F28" t="n">
+        <v>775.3569</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-15501.7658237037</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>260</v>
+      </c>
+      <c r="C29" t="n">
+        <v>260</v>
+      </c>
+      <c r="D29" t="n">
+        <v>260</v>
+      </c>
+      <c r="E29" t="n">
+        <v>260</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1015.9618</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-16517.7276237037</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>260</v>
+      </c>
+      <c r="C30" t="n">
+        <v>260</v>
+      </c>
+      <c r="D30" t="n">
+        <v>260</v>
+      </c>
+      <c r="E30" t="n">
+        <v>260</v>
+      </c>
+      <c r="F30" t="n">
+        <v>87.4259</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-16517.7276237037</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>261</v>
+      </c>
+      <c r="C31" t="n">
+        <v>260</v>
+      </c>
+      <c r="D31" t="n">
+        <v>261</v>
+      </c>
+      <c r="E31" t="n">
+        <v>260</v>
+      </c>
+      <c r="F31" t="n">
+        <v>81.3142</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-16517.7276237037</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>260</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>261</v>
-      </c>
-      <c r="C25" t="n">
-        <v>261</v>
-      </c>
-      <c r="D25" t="n">
-        <v>261</v>
-      </c>
-      <c r="E25" t="n">
-        <v>261</v>
-      </c>
-      <c r="F25" t="n">
-        <v>570.2394</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-14737.9893237037</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>261</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>259</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259</v>
+      </c>
+      <c r="D32" t="n">
+        <v>259</v>
+      </c>
+      <c r="E32" t="n">
+        <v>259</v>
+      </c>
+      <c r="F32" t="n">
+        <v>35.8767</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-16553.6043237037</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>261</v>
-      </c>
-      <c r="C26" t="n">
-        <v>261</v>
-      </c>
-      <c r="D26" t="n">
-        <v>261</v>
-      </c>
-      <c r="E26" t="n">
-        <v>261</v>
-      </c>
-      <c r="F26" t="n">
-        <v>680</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-14737.9893237037</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>261</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>258</v>
+      </c>
+      <c r="C33" t="n">
+        <v>258</v>
+      </c>
+      <c r="D33" t="n">
+        <v>258</v>
+      </c>
+      <c r="E33" t="n">
+        <v>258</v>
+      </c>
+      <c r="F33" t="n">
+        <v>200</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-16753.6043237037</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>261</v>
-      </c>
-      <c r="C27" t="n">
-        <v>262</v>
-      </c>
-      <c r="D27" t="n">
-        <v>262</v>
-      </c>
-      <c r="E27" t="n">
-        <v>261</v>
-      </c>
-      <c r="F27" t="n">
-        <v>11.5804</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-14726.4089237037</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>261</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>260</v>
+      </c>
+      <c r="C34" t="n">
+        <v>260</v>
+      </c>
+      <c r="D34" t="n">
+        <v>260</v>
+      </c>
+      <c r="E34" t="n">
+        <v>260</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9940.286099999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-6813.318223703705</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>258</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>261</v>
-      </c>
-      <c r="C28" t="n">
-        <v>261</v>
-      </c>
-      <c r="D28" t="n">
-        <v>261</v>
-      </c>
-      <c r="E28" t="n">
-        <v>261</v>
-      </c>
-      <c r="F28" t="n">
-        <v>775.3569</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-15501.7658237037</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>261</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>261</v>
+      </c>
+      <c r="C35" t="n">
+        <v>261</v>
+      </c>
+      <c r="D35" t="n">
+        <v>261</v>
+      </c>
+      <c r="E35" t="n">
+        <v>261</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-6812.318223703705</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>260</v>
-      </c>
-      <c r="C29" t="n">
-        <v>260</v>
-      </c>
-      <c r="D29" t="n">
-        <v>260</v>
-      </c>
-      <c r="E29" t="n">
-        <v>260</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1015.9618</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-16517.7276237037</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>261</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>262</v>
+      </c>
+      <c r="C36" t="n">
+        <v>264</v>
+      </c>
+      <c r="D36" t="n">
+        <v>264</v>
+      </c>
+      <c r="E36" t="n">
+        <v>262</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1272.404368939394</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-5539.913854764312</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>260</v>
-      </c>
-      <c r="C30" t="n">
-        <v>260</v>
-      </c>
-      <c r="D30" t="n">
-        <v>260</v>
-      </c>
-      <c r="E30" t="n">
-        <v>260</v>
-      </c>
-      <c r="F30" t="n">
-        <v>87.4259</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-16517.7276237037</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>260</v>
-      </c>
-      <c r="K30" t="n">
-        <v>261</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>261</v>
+      </c>
+      <c r="C37" t="n">
+        <v>261</v>
+      </c>
+      <c r="D37" t="n">
+        <v>261</v>
+      </c>
+      <c r="E37" t="n">
+        <v>261</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-5589.913854764312</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>261</v>
-      </c>
-      <c r="C31" t="n">
-        <v>260</v>
-      </c>
-      <c r="D31" t="n">
-        <v>261</v>
-      </c>
-      <c r="E31" t="n">
-        <v>260</v>
-      </c>
-      <c r="F31" t="n">
-        <v>81.3142</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-16517.7276237037</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>260</v>
-      </c>
-      <c r="K31" t="n">
-        <v>261</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>261</v>
+      </c>
+      <c r="C38" t="n">
+        <v>265</v>
+      </c>
+      <c r="D38" t="n">
+        <v>265</v>
+      </c>
+      <c r="E38" t="n">
+        <v>261</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-5587.613854764311</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>259</v>
-      </c>
-      <c r="C32" t="n">
-        <v>259</v>
-      </c>
-      <c r="D32" t="n">
-        <v>259</v>
-      </c>
-      <c r="E32" t="n">
-        <v>259</v>
-      </c>
-      <c r="F32" t="n">
-        <v>35.8767</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-16553.6043237037</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>260</v>
-      </c>
-      <c r="K32" t="n">
-        <v>261</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>262</v>
+      </c>
+      <c r="C39" t="n">
+        <v>262</v>
+      </c>
+      <c r="D39" t="n">
+        <v>262</v>
+      </c>
+      <c r="E39" t="n">
+        <v>262</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-5588.613854764311</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>258</v>
-      </c>
-      <c r="C33" t="n">
-        <v>258</v>
-      </c>
-      <c r="D33" t="n">
-        <v>258</v>
-      </c>
-      <c r="E33" t="n">
-        <v>258</v>
-      </c>
-      <c r="F33" t="n">
-        <v>200</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-16753.6043237037</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>259</v>
-      </c>
-      <c r="K33" t="n">
-        <v>261</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>265</v>
+      </c>
+      <c r="C40" t="n">
+        <v>265</v>
+      </c>
+      <c r="D40" t="n">
+        <v>265</v>
+      </c>
+      <c r="E40" t="n">
+        <v>265</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-5568.613854764311</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>260</v>
-      </c>
-      <c r="C34" t="n">
-        <v>260</v>
-      </c>
-      <c r="D34" t="n">
-        <v>260</v>
-      </c>
-      <c r="E34" t="n">
-        <v>260</v>
-      </c>
-      <c r="F34" t="n">
-        <v>9940.286099999999</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-6813.318223703705</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>258</v>
-      </c>
-      <c r="K34" t="n">
-        <v>261</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>265</v>
+      </c>
+      <c r="C41" t="n">
+        <v>262</v>
+      </c>
+      <c r="D41" t="n">
+        <v>279</v>
+      </c>
+      <c r="E41" t="n">
+        <v>262</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10335.9848</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-15904.59865476431</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>261</v>
-      </c>
-      <c r="C35" t="n">
-        <v>261</v>
-      </c>
-      <c r="D35" t="n">
-        <v>261</v>
-      </c>
-      <c r="E35" t="n">
-        <v>261</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-6812.318223703705</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>261</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>272</v>
+      </c>
+      <c r="C42" t="n">
+        <v>272</v>
+      </c>
+      <c r="D42" t="n">
+        <v>272</v>
+      </c>
+      <c r="E42" t="n">
+        <v>272</v>
+      </c>
+      <c r="F42" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-15864.59865476431</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>262</v>
-      </c>
-      <c r="C36" t="n">
-        <v>264</v>
-      </c>
-      <c r="D36" t="n">
-        <v>264</v>
-      </c>
-      <c r="E36" t="n">
-        <v>262</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1272.404368939394</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-5539.913854764312</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>261</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>269</v>
+      </c>
+      <c r="C43" t="n">
+        <v>277</v>
+      </c>
+      <c r="D43" t="n">
+        <v>277</v>
+      </c>
+      <c r="E43" t="n">
+        <v>269</v>
+      </c>
+      <c r="F43" t="n">
+        <v>600</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-15264.59865476431</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>261</v>
-      </c>
-      <c r="C37" t="n">
-        <v>261</v>
-      </c>
-      <c r="D37" t="n">
-        <v>261</v>
-      </c>
-      <c r="E37" t="n">
-        <v>261</v>
-      </c>
-      <c r="F37" t="n">
-        <v>50</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-5589.913854764312</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>261</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>277</v>
+      </c>
+      <c r="C44" t="n">
+        <v>279</v>
+      </c>
+      <c r="D44" t="n">
+        <v>279</v>
+      </c>
+      <c r="E44" t="n">
+        <v>263</v>
+      </c>
+      <c r="F44" t="n">
+        <v>850</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-14414.59865476431</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>261</v>
-      </c>
-      <c r="C38" t="n">
-        <v>265</v>
-      </c>
-      <c r="D38" t="n">
-        <v>265</v>
-      </c>
-      <c r="E38" t="n">
-        <v>261</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-5587.613854764311</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>261</v>
-      </c>
-      <c r="K38" t="n">
-        <v>261</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>270</v>
+      </c>
+      <c r="C45" t="n">
+        <v>274</v>
+      </c>
+      <c r="D45" t="n">
+        <v>274</v>
+      </c>
+      <c r="E45" t="n">
+        <v>264</v>
+      </c>
+      <c r="F45" t="n">
+        <v>439.4223</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-14854.02095476431</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>262</v>
-      </c>
-      <c r="C39" t="n">
-        <v>262</v>
-      </c>
-      <c r="D39" t="n">
-        <v>262</v>
-      </c>
-      <c r="E39" t="n">
-        <v>262</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-5588.613854764311</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>261</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>267</v>
+      </c>
+      <c r="C46" t="n">
+        <v>267</v>
+      </c>
+      <c r="D46" t="n">
+        <v>267</v>
+      </c>
+      <c r="E46" t="n">
+        <v>267</v>
+      </c>
+      <c r="F46" t="n">
+        <v>27.6415</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-14881.66245476431</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>265</v>
-      </c>
-      <c r="C40" t="n">
-        <v>265</v>
-      </c>
-      <c r="D40" t="n">
-        <v>265</v>
-      </c>
-      <c r="E40" t="n">
-        <v>265</v>
-      </c>
-      <c r="F40" t="n">
-        <v>20</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-5568.613854764311</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>261</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>267</v>
+      </c>
+      <c r="C47" t="n">
+        <v>267</v>
+      </c>
+      <c r="D47" t="n">
+        <v>267</v>
+      </c>
+      <c r="E47" t="n">
+        <v>267</v>
+      </c>
+      <c r="F47" t="n">
+        <v>21.925</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-14881.66245476431</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>265</v>
-      </c>
-      <c r="C41" t="n">
-        <v>262</v>
-      </c>
-      <c r="D41" t="n">
-        <v>279</v>
-      </c>
-      <c r="E41" t="n">
-        <v>262</v>
-      </c>
-      <c r="F41" t="n">
-        <v>10335.9848</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-15904.59865476431</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>261</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>267</v>
+      </c>
+      <c r="C48" t="n">
+        <v>269</v>
+      </c>
+      <c r="D48" t="n">
+        <v>269</v>
+      </c>
+      <c r="E48" t="n">
+        <v>267</v>
+      </c>
+      <c r="F48" t="n">
+        <v>908.006</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-13973.65645476431</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>272</v>
-      </c>
-      <c r="C42" t="n">
-        <v>272</v>
-      </c>
-      <c r="D42" t="n">
-        <v>272</v>
-      </c>
-      <c r="E42" t="n">
-        <v>272</v>
-      </c>
-      <c r="F42" t="n">
-        <v>40</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-15864.59865476431</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>261</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>270</v>
+      </c>
+      <c r="C49" t="n">
+        <v>270</v>
+      </c>
+      <c r="D49" t="n">
+        <v>270</v>
+      </c>
+      <c r="E49" t="n">
+        <v>270</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1020.5779</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-12953.07855476431</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>269</v>
-      </c>
-      <c r="C43" t="n">
-        <v>277</v>
-      </c>
-      <c r="D43" t="n">
-        <v>277</v>
-      </c>
-      <c r="E43" t="n">
-        <v>269</v>
-      </c>
-      <c r="F43" t="n">
-        <v>600</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-15264.59865476431</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>261</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>277</v>
-      </c>
-      <c r="C44" t="n">
-        <v>279</v>
-      </c>
-      <c r="D44" t="n">
-        <v>279</v>
-      </c>
-      <c r="E44" t="n">
-        <v>263</v>
-      </c>
-      <c r="F44" t="n">
-        <v>850</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-14414.59865476431</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>261</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>270</v>
-      </c>
-      <c r="C45" t="n">
-        <v>274</v>
-      </c>
-      <c r="D45" t="n">
-        <v>274</v>
-      </c>
-      <c r="E45" t="n">
-        <v>264</v>
-      </c>
-      <c r="F45" t="n">
-        <v>439.4223</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-14854.02095476431</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>261</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>267</v>
-      </c>
-      <c r="C46" t="n">
-        <v>267</v>
-      </c>
-      <c r="D46" t="n">
-        <v>267</v>
-      </c>
-      <c r="E46" t="n">
-        <v>267</v>
-      </c>
-      <c r="F46" t="n">
-        <v>27.6415</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-14881.66245476431</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>261</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>267</v>
-      </c>
-      <c r="C47" t="n">
-        <v>267</v>
-      </c>
-      <c r="D47" t="n">
-        <v>267</v>
-      </c>
-      <c r="E47" t="n">
-        <v>267</v>
-      </c>
-      <c r="F47" t="n">
-        <v>21.925</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-14881.66245476431</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>261</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>267</v>
-      </c>
-      <c r="C48" t="n">
-        <v>269</v>
-      </c>
-      <c r="D48" t="n">
-        <v>269</v>
-      </c>
-      <c r="E48" t="n">
-        <v>267</v>
-      </c>
-      <c r="F48" t="n">
-        <v>908.006</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-13973.65645476431</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>261</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>270</v>
-      </c>
-      <c r="C49" t="n">
-        <v>270</v>
-      </c>
-      <c r="D49" t="n">
-        <v>270</v>
-      </c>
-      <c r="E49" t="n">
-        <v>270</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1020.5779</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-12953.07855476431</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>261</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2356,24 +2115,17 @@
         <v>-10030.90625476431</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>261</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2398,24 +2150,15 @@
         <v>-10029.90625476431</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>261</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2440,24 +2183,15 @@
         <v>-10029.90625476431</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>261</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2482,24 +2216,15 @@
         <v>-10029.90625476431</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>261</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2524,24 +2249,15 @@
         <v>-10029.90625476431</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>261</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2566,24 +2282,15 @@
         <v>-9961.906254764312</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>261</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2608,24 +2315,15 @@
         <v>-10101.90625476431</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>261</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2652,22 +2350,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>261</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2694,22 +2383,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>261</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2734,24 +2414,15 @@
         <v>-9305.906254764312</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>261</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2776,24 +2447,15 @@
         <v>-9305.906254764312</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>261</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2818,24 +2480,15 @@
         <v>-9445.906254764312</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>261</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2860,24 +2513,15 @@
         <v>-9386.914754764312</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>261</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2902,24 +2546,15 @@
         <v>-9407.009954764311</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>261</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2944,24 +2579,15 @@
         <v>-9407.009954764311</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>261</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2986,24 +2612,15 @@
         <v>-9407.009954764311</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>261</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3028,24 +2645,15 @@
         <v>-9957.009954764311</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>261</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3070,24 +2678,15 @@
         <v>-9937.009954764311</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>261</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3114,22 +2713,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>261</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3156,22 +2746,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>261</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3198,22 +2779,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>261</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3240,22 +2812,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>261</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3282,22 +2845,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>261</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3324,22 +2878,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>261</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3366,22 +2911,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>261</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3408,22 +2944,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>261</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3450,22 +2977,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>261</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3492,22 +3010,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>261</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3534,22 +3043,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>261</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3576,22 +3076,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>261</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3618,22 +3109,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>261</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3660,22 +3142,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>261</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3702,22 +3175,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>261</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3744,22 +3208,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>261</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3786,22 +3241,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>261</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3828,22 +3274,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>261</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3870,22 +3307,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>261</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3912,22 +3340,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>261</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3954,22 +3373,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>261</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3996,22 +3406,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>261</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4038,22 +3439,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>261</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4080,22 +3472,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>261</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4122,22 +3505,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>261</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4164,22 +3538,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>261</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4206,22 +3571,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>261</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4248,22 +3604,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>261</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4290,22 +3637,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>261</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4332,22 +3670,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>261</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4374,22 +3703,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>261</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4416,22 +3736,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>261</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4458,22 +3769,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>261</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4500,22 +3802,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>261</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4542,22 +3835,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>261</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4584,22 +3868,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>261</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4626,22 +3901,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>261</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4668,22 +3934,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>261</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4710,22 +3967,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>261</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4752,22 +4000,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>261</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4792,24 +4031,19 @@
         <v>-17682.75985476431</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>261</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J108" t="n">
+        <v>258</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4834,26 +4068,25 @@
         <v>-17640.75985476431</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>261</v>
-      </c>
-      <c r="L109" t="inlineStr">
+        <v>266</v>
+      </c>
+      <c r="J109" t="n">
+        <v>258</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest AE.xlsx
+++ b/BackTest/2019-10-29 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-7602.807623703704</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7522.098223703704</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-7521.098223703704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-7645.591323703704</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-7135.780023703704</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9171.553923703703</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-9407.565023703703</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-9407.565023703703</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-9508.312523703702</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-9508.312523703702</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9497.345923703702</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-9597.345923703702</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-9736.345923703702</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-14649.5105237037</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-14167.7499237037</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-14737.9893237037</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1408,17 +1408,11 @@
         <v>-16517.7276237037</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1451,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1484,15 +1474,11 @@
         <v>-16753.6043237037</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1521,17 +1507,11 @@
         <v>-6813.318223703705</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1564,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1601,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1634,15 +1606,11 @@
         <v>-5589.913854764312</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1675,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1712,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1749,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1786,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1823,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1860,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1897,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1934,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1971,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2008,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2045,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2082,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2115,16 +2035,14 @@
         <v>-10030.90625476431</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2150,7 +2068,7 @@
         <v>-10029.90625476431</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2183,7 +2101,7 @@
         <v>-10029.90625476431</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2216,7 +2134,7 @@
         <v>-10029.90625476431</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2249,7 +2167,7 @@
         <v>-10029.90625476431</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2282,7 +2200,7 @@
         <v>-9961.906254764312</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2315,7 +2233,7 @@
         <v>-10101.90625476431</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2414,7 +2332,7 @@
         <v>-9305.906254764312</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2447,7 +2365,7 @@
         <v>-9305.906254764312</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2480,7 +2398,7 @@
         <v>-9445.906254764312</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2513,7 +2431,7 @@
         <v>-9386.914754764312</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2546,7 +2464,7 @@
         <v>-9407.009954764311</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2579,7 +2497,7 @@
         <v>-9407.009954764311</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2612,7 +2530,7 @@
         <v>-9407.009954764311</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2645,7 +2563,7 @@
         <v>-9957.009954764311</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2678,7 +2596,7 @@
         <v>-9937.009954764311</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2744,10 +2662,14 @@
         <v>-10997.56015476431</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>267</v>
+      </c>
+      <c r="J69" t="n">
+        <v>267</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2777,11 +2699,19 @@
         <v>-10997.56015476431</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>267</v>
+      </c>
+      <c r="J70" t="n">
+        <v>267</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +2740,19 @@
         <v>-10997.56015476431</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>267</v>
+      </c>
+      <c r="J71" t="n">
+        <v>267</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -4031,7 +3969,7 @@
         <v>-17682.75985476431</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>258</v>
@@ -4068,7 +4006,7 @@
         <v>-17640.75985476431</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>266</v>
@@ -4087,6 +4025,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest AE.xlsx
+++ b/BackTest/2019-10-29 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-7602.807623703704</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-7135.780023703704</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9596.345923703702</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-14233.3114237037</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1738,11 +1738,17 @@
         <v>-15904.59865476431</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>265</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1781,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1818,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1855,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1892,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1929,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1966,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2003,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2040,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2077,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2114,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2151,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2188,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2225,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2262,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2299,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2336,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2373,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2410,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2447,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2484,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2521,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2558,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2595,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2632,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2669,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2706,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2743,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,15 +2776,15 @@
         <v>-10997.56015476431</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>267</v>
-      </c>
-      <c r="J69" t="n">
-        <v>267</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,17 +2813,13 @@
         <v>-10997.56015476431</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>267</v>
-      </c>
-      <c r="J70" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2740,17 +2850,13 @@
         <v>-10997.56015476431</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>267</v>
-      </c>
-      <c r="J71" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2785,7 +2891,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2818,7 +2928,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2851,7 +2965,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2884,7 +3002,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2917,7 +3039,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2950,7 +3076,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2983,7 +3113,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3016,7 +3150,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3049,7 +3187,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3082,7 +3224,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3115,7 +3261,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3148,7 +3298,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3181,7 +3335,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3214,7 +3372,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3247,7 +3409,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3280,7 +3446,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3313,7 +3483,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3346,7 +3520,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3379,7 +3557,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3412,7 +3594,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3445,7 +3631,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3478,7 +3668,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3701,17 @@
         <v>-15347.84245476431</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>263</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3544,7 +3744,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,11 +3777,17 @@
         <v>-15347.84245476431</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>261</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3610,7 +3820,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,11 +3853,17 @@
         <v>-15030.77065476431</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>263</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3892,17 @@
         <v>-15030.77065476431</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>265</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3709,7 +3935,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3742,7 +3972,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3775,7 +4009,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3808,7 +4046,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3841,7 +4083,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3874,7 +4120,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3907,7 +4157,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3936,11 +4190,17 @@
         <v>-17873.75985476431</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>261</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3974,10 +4234,12 @@
       <c r="I108" t="n">
         <v>258</v>
       </c>
-      <c r="J108" t="n">
-        <v>258</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4011,12 +4273,10 @@
       <c r="I109" t="n">
         <v>266</v>
       </c>
-      <c r="J109" t="n">
-        <v>258</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4025,6 +4285,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest AE.xlsx
+++ b/BackTest/2019-10-29 BackTest AE.xlsx
@@ -451,7 +451,7 @@
         <v>-7602.807623703704</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-7521.098223703704</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-9407.565023703703</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-9407.565023703703</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-9508.312523703702</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-9508.312523703702</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9497.345923703702</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9596.345923703702</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-14233.3114237037</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1441,10 +1441,14 @@
         <v>-16553.6043237037</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>260</v>
+      </c>
+      <c r="J32" t="n">
+        <v>260</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1474,11 +1478,19 @@
         <v>-16753.6043237037</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>259</v>
+      </c>
+      <c r="J33" t="n">
+        <v>260</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1519,19 @@
         <v>-6813.318223703705</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>258</v>
+      </c>
+      <c r="J34" t="n">
+        <v>260</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1738,17 +1758,11 @@
         <v>-15904.59865476431</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1781,11 +1795,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1818,11 +1828,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +1861,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1892,11 +1894,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1929,11 +1927,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1966,11 +1960,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,11 +1993,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2036,15 +2022,15 @@
         <v>-12953.07855476431</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>269</v>
+      </c>
+      <c r="J49" t="n">
+        <v>269</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2076,10 +2062,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>269</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2113,7 +2101,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>269</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2150,7 +2140,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>269</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2187,7 +2179,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>269</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2224,7 +2218,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>269</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,7 +2257,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>269</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2298,7 +2296,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>269</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2335,7 +2335,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>269</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2372,7 +2374,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>269</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,7 +2413,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>269</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2446,7 +2452,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>269</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,7 +2491,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>269</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,7 +2530,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>269</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,7 +2569,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>269</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2594,7 +2608,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>269</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2631,7 +2647,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>269</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,7 +2686,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>269</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2702,10 +2722,14 @@
         <v>-9937.009954764311</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>264</v>
+      </c>
+      <c r="J67" t="n">
+        <v>269</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2742,7 +2766,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>269</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2779,7 +2805,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>269</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2816,7 +2844,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>269</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,10 +2880,14 @@
         <v>-10997.56015476431</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>267</v>
+      </c>
+      <c r="J71" t="n">
+        <v>269</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,7 +2924,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>269</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2924,10 +2960,14 @@
         <v>-10991.43835476431</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>267</v>
+      </c>
+      <c r="J73" t="n">
+        <v>269</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2964,7 +3004,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>269</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,10 +3040,14 @@
         <v>-11785.93025476431</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>267</v>
+      </c>
+      <c r="J75" t="n">
+        <v>269</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3035,10 +3081,14 @@
         <v>-12366.93025476431</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>271</v>
+      </c>
+      <c r="J76" t="n">
+        <v>269</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,7 +3125,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>269</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,7 +3164,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>269</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3149,7 +3203,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>269</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3186,7 +3242,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>269</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,7 +3281,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>269</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,7 +3320,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>269</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,7 +3359,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>269</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,7 +3398,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>269</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3371,7 +3437,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>269</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,7 +3476,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>269</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,7 +3515,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>269</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,7 +3554,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>269</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,10 +3590,14 @@
         <v>-13910.26505476431</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>264</v>
+      </c>
+      <c r="J89" t="n">
+        <v>269</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,7 +3634,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>269</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3590,10 +3670,14 @@
         <v>-13910.26505476431</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>264</v>
+      </c>
+      <c r="J91" t="n">
+        <v>269</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,7 +3714,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>269</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,7 +3753,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>269</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3701,12 +3789,12 @@
         <v>-15347.84245476431</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>263</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>269</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3743,7 +3831,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>269</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3777,12 +3867,12 @@
         <v>-15347.84245476431</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>261</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>269</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3816,10 +3906,14 @@
         <v>-15035.77065476431</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>261</v>
+      </c>
+      <c r="J97" t="n">
+        <v>269</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,7 +3952,9 @@
       <c r="I98" t="n">
         <v>263</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>269</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,7 +3993,9 @@
       <c r="I99" t="n">
         <v>265</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>269</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3931,10 +4029,14 @@
         <v>-15010.77065476431</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>265</v>
+      </c>
+      <c r="J100" t="n">
+        <v>269</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,10 +4070,14 @@
         <v>-17473.99745476431</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>268</v>
+      </c>
+      <c r="J101" t="n">
+        <v>269</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4005,10 +4111,14 @@
         <v>-17412.99745476431</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>258</v>
+      </c>
+      <c r="J102" t="n">
+        <v>269</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,7 +4155,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>269</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,7 +4194,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>269</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4119,7 +4233,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>269</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,10 +4269,14 @@
         <v>-17680.09045476431</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>262</v>
+      </c>
+      <c r="J106" t="n">
+        <v>269</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4195,7 +4315,9 @@
       <c r="I107" t="n">
         <v>261</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>269</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,7 +4356,9 @@
       <c r="I108" t="n">
         <v>258</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>269</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,7 +4397,9 @@
       <c r="I109" t="n">
         <v>266</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>269</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-29 BackTest AE.xlsx
+++ b/BackTest/2019-10-29 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3831.3179</v>
       </c>
       <c r="G2" t="n">
-        <v>-7602.807623703704</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>80.7094</v>
       </c>
       <c r="G3" t="n">
-        <v>-7522.098223703704</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-7521.098223703704</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>124.4931</v>
       </c>
       <c r="G5" t="n">
-        <v>-7645.591323703704</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>509.8113</v>
       </c>
       <c r="G6" t="n">
-        <v>-7135.780023703704</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2035.7739</v>
       </c>
       <c r="G7" t="n">
-        <v>-9171.553923703703</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>134.2261</v>
       </c>
       <c r="G8" t="n">
-        <v>-9305.780023703703</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>59.1731</v>
       </c>
       <c r="G9" t="n">
-        <v>-9305.780023703703</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>101.785</v>
       </c>
       <c r="G10" t="n">
-        <v>-9407.565023703703</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>22.347</v>
       </c>
       <c r="G11" t="n">
-        <v>-9407.565023703703</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>100.7475</v>
       </c>
       <c r="G12" t="n">
-        <v>-9508.312523703702</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1564.7328</v>
       </c>
       <c r="G13" t="n">
-        <v>-9508.312523703702</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10.9666</v>
       </c>
       <c r="G14" t="n">
-        <v>-9497.345923703702</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>-9597.345923703702</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-9596.345923703702</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>140</v>
       </c>
       <c r="G17" t="n">
-        <v>-9736.345923703702</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1982.1703</v>
       </c>
       <c r="G18" t="n">
-        <v>-11718.5162237037</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>115.0156</v>
       </c>
       <c r="G19" t="n">
-        <v>-11718.5162237037</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>27.8024</v>
       </c>
       <c r="G20" t="n">
-        <v>-11718.5162237037</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2514.7952</v>
       </c>
       <c r="G21" t="n">
-        <v>-14233.3114237037</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>416.1991</v>
       </c>
       <c r="G22" t="n">
-        <v>-14649.5105237037</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>766.6129</v>
       </c>
       <c r="G23" t="n">
-        <v>-14649.5105237037</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>481.7606</v>
       </c>
       <c r="G24" t="n">
-        <v>-14167.7499237037</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>570.2394</v>
       </c>
       <c r="G25" t="n">
-        <v>-14737.9893237037</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>680</v>
       </c>
       <c r="G26" t="n">
-        <v>-14737.9893237037</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,21 @@
         <v>11.5804</v>
       </c>
       <c r="G27" t="n">
-        <v>-14726.4089237037</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1229,19 @@
         <v>775.3569</v>
       </c>
       <c r="G28" t="n">
-        <v>-15501.7658237037</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1263,21 @@
         <v>1015.9618</v>
       </c>
       <c r="G29" t="n">
-        <v>-16517.7276237037</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1299,19 @@
         <v>87.4259</v>
       </c>
       <c r="G30" t="n">
-        <v>-16517.7276237037</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1333,19 @@
         <v>81.3142</v>
       </c>
       <c r="G31" t="n">
-        <v>-16517.7276237037</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,22 +1367,21 @@
         <v>35.8767</v>
       </c>
       <c r="G32" t="n">
-        <v>-16553.6043237037</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
         <v>260</v>
       </c>
-      <c r="J32" t="n">
-        <v>260</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1475,26 +1403,21 @@
         <v>200</v>
       </c>
       <c r="G33" t="n">
-        <v>-16753.6043237037</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
         <v>259</v>
       </c>
-      <c r="J33" t="n">
-        <v>260</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1516,26 +1439,21 @@
         <v>9940.286099999999</v>
       </c>
       <c r="G34" t="n">
-        <v>-6813.318223703705</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
         <v>258</v>
       </c>
-      <c r="J34" t="n">
-        <v>260</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1557,18 +1475,21 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-6812.318223703705</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1590,18 +1511,21 @@
         <v>1272.404368939394</v>
       </c>
       <c r="G36" t="n">
-        <v>-5539.913854764312</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1623,18 +1547,21 @@
         <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>-5589.913854764312</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1656,18 +1583,21 @@
         <v>2.3</v>
       </c>
       <c r="G38" t="n">
-        <v>-5587.613854764311</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1689,18 +1619,21 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-5588.613854764311</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1722,18 +1655,21 @@
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>-5568.613854764311</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1755,18 +1691,21 @@
         <v>10335.9848</v>
       </c>
       <c r="G41" t="n">
-        <v>-15904.59865476431</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1788,18 +1727,19 @@
         <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>-15864.59865476431</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1821,18 +1761,19 @@
         <v>600</v>
       </c>
       <c r="G43" t="n">
-        <v>-15264.59865476431</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1854,18 +1795,19 @@
         <v>850</v>
       </c>
       <c r="G44" t="n">
-        <v>-14414.59865476431</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1887,18 +1829,19 @@
         <v>439.4223</v>
       </c>
       <c r="G45" t="n">
-        <v>-14854.02095476431</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1920,18 +1863,19 @@
         <v>27.6415</v>
       </c>
       <c r="G46" t="n">
-        <v>-14881.66245476431</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1953,18 +1897,19 @@
         <v>21.925</v>
       </c>
       <c r="G47" t="n">
-        <v>-14881.66245476431</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1986,18 +1931,19 @@
         <v>908.006</v>
       </c>
       <c r="G48" t="n">
-        <v>-13973.65645476431</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2019,22 +1965,19 @@
         <v>1020.5779</v>
       </c>
       <c r="G49" t="n">
-        <v>-12953.07855476431</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>269</v>
-      </c>
-      <c r="J49" t="n">
-        <v>269</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2056,24 +1999,19 @@
         <v>2922.1723</v>
       </c>
       <c r="G50" t="n">
-        <v>-10030.90625476431</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>269</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2095,24 +2033,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-10029.90625476431</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>269</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2134,24 +2067,19 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>-10029.90625476431</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>269</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2173,24 +2101,19 @@
         <v>2.3563</v>
       </c>
       <c r="G53" t="n">
-        <v>-10029.90625476431</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>269</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2212,24 +2135,19 @@
         <v>1317.9042</v>
       </c>
       <c r="G54" t="n">
-        <v>-10029.90625476431</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>269</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2251,24 +2169,19 @@
         <v>68</v>
       </c>
       <c r="G55" t="n">
-        <v>-9961.906254764312</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>269</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2290,24 +2203,19 @@
         <v>140</v>
       </c>
       <c r="G56" t="n">
-        <v>-10101.90625476431</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>269</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2329,24 +2237,19 @@
         <v>778</v>
       </c>
       <c r="G57" t="n">
-        <v>-9323.906254764312</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>269</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2368,24 +2271,19 @@
         <v>197</v>
       </c>
       <c r="G58" t="n">
-        <v>-9520.906254764312</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>269</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2407,24 +2305,19 @@
         <v>215</v>
       </c>
       <c r="G59" t="n">
-        <v>-9305.906254764312</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>269</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2446,24 +2339,19 @@
         <v>47</v>
       </c>
       <c r="G60" t="n">
-        <v>-9305.906254764312</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>269</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2485,24 +2373,19 @@
         <v>140</v>
       </c>
       <c r="G61" t="n">
-        <v>-9445.906254764312</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>269</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2524,24 +2407,19 @@
         <v>58.9915</v>
       </c>
       <c r="G62" t="n">
-        <v>-9386.914754764312</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>269</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2563,24 +2441,19 @@
         <v>20.0952</v>
       </c>
       <c r="G63" t="n">
-        <v>-9407.009954764311</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>269</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2602,24 +2475,19 @@
         <v>17.7692</v>
       </c>
       <c r="G64" t="n">
-        <v>-9407.009954764311</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>269</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2641,24 +2509,19 @@
         <v>39.6483</v>
       </c>
       <c r="G65" t="n">
-        <v>-9407.009954764311</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>269</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2680,24 +2543,19 @@
         <v>550</v>
       </c>
       <c r="G66" t="n">
-        <v>-9957.009954764311</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>269</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2719,26 +2577,19 @@
         <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>-9937.009954764311</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>264</v>
-      </c>
-      <c r="J67" t="n">
-        <v>269</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2760,24 +2611,19 @@
         <v>1060.5502</v>
       </c>
       <c r="G68" t="n">
-        <v>-10997.56015476431</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>269</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2799,24 +2645,19 @@
         <v>140.0781</v>
       </c>
       <c r="G69" t="n">
-        <v>-10997.56015476431</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>269</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2838,24 +2679,19 @@
         <v>1222.9026</v>
       </c>
       <c r="G70" t="n">
-        <v>-10997.56015476431</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>269</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,26 +2713,19 @@
         <v>288.7355</v>
       </c>
       <c r="G71" t="n">
-        <v>-10997.56015476431</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>267</v>
-      </c>
-      <c r="J71" t="n">
-        <v>269</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2918,24 +2747,19 @@
         <v>410.7604</v>
       </c>
       <c r="G72" t="n">
-        <v>-10997.56015476431</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>269</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2957,26 +2781,19 @@
         <v>6.1218</v>
       </c>
       <c r="G73" t="n">
-        <v>-10991.43835476431</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>267</v>
-      </c>
-      <c r="J73" t="n">
-        <v>269</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2998,24 +2815,19 @@
         <v>795.4919</v>
       </c>
       <c r="G74" t="n">
-        <v>-11786.93025476431</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>269</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3037,26 +2849,19 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-11785.93025476431</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>267</v>
-      </c>
-      <c r="J75" t="n">
-        <v>269</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3078,26 +2883,19 @@
         <v>581</v>
       </c>
       <c r="G76" t="n">
-        <v>-12366.93025476431</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>271</v>
-      </c>
-      <c r="J76" t="n">
-        <v>269</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3119,24 +2917,19 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>-12365.93025476431</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>269</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3158,24 +2951,19 @@
         <v>184</v>
       </c>
       <c r="G78" t="n">
-        <v>-12365.93025476431</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>269</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3197,24 +2985,19 @@
         <v>140</v>
       </c>
       <c r="G79" t="n">
-        <v>-12505.93025476431</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>269</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3236,24 +3019,19 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>-12504.93025476431</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>269</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3275,24 +3053,19 @@
         <v>40</v>
       </c>
       <c r="G81" t="n">
-        <v>-12544.93025476431</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>269</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3314,24 +3087,19 @@
         <v>5.9875</v>
       </c>
       <c r="G82" t="n">
-        <v>-12538.94275476431</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>269</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3353,24 +3121,19 @@
         <v>19.95</v>
       </c>
       <c r="G83" t="n">
-        <v>-12558.89275476431</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>269</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3392,24 +3155,19 @@
         <v>274</v>
       </c>
       <c r="G84" t="n">
-        <v>-12284.89275476431</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>269</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3431,24 +3189,19 @@
         <v>1251.0032</v>
       </c>
       <c r="G85" t="n">
-        <v>-13535.89595476431</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>269</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3470,24 +3223,19 @@
         <v>24.8751</v>
       </c>
       <c r="G86" t="n">
-        <v>-13511.02085476431</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>269</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3509,24 +3257,19 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>-13510.02085476431</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>269</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3548,24 +3291,19 @@
         <v>400.2442</v>
       </c>
       <c r="G88" t="n">
-        <v>-13910.26505476431</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>269</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3587,26 +3325,19 @@
         <v>181.2762</v>
       </c>
       <c r="G89" t="n">
-        <v>-13910.26505476431</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>264</v>
-      </c>
-      <c r="J89" t="n">
-        <v>269</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3628,24 +3359,19 @@
         <v>180.2501</v>
       </c>
       <c r="G90" t="n">
-        <v>-13910.26505476431</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>269</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3667,26 +3393,19 @@
         <v>349.809</v>
       </c>
       <c r="G91" t="n">
-        <v>-13910.26505476431</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>264</v>
-      </c>
-      <c r="J91" t="n">
-        <v>269</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3708,24 +3427,19 @@
         <v>729.2886999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-14639.55375476431</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>269</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3747,24 +3461,19 @@
         <v>21</v>
       </c>
       <c r="G93" t="n">
-        <v>-14618.55375476431</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>269</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3786,24 +3495,19 @@
         <v>729.2886999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>-15347.84245476431</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>269</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3825,24 +3529,19 @@
         <v>4959.842</v>
       </c>
       <c r="G95" t="n">
-        <v>-15347.84245476431</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>269</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3864,24 +3563,19 @@
         <v>892.8167</v>
       </c>
       <c r="G96" t="n">
-        <v>-15347.84245476431</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>269</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3903,26 +3597,19 @@
         <v>312.0718</v>
       </c>
       <c r="G97" t="n">
-        <v>-15035.77065476431</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>261</v>
-      </c>
-      <c r="J97" t="n">
-        <v>269</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3944,26 +3631,19 @@
         <v>5</v>
       </c>
       <c r="G98" t="n">
-        <v>-15030.77065476431</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>263</v>
-      </c>
-      <c r="J98" t="n">
-        <v>269</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3985,26 +3665,19 @@
         <v>1282.5261</v>
       </c>
       <c r="G99" t="n">
-        <v>-15030.77065476431</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>265</v>
-      </c>
-      <c r="J99" t="n">
-        <v>269</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4026,26 +3699,19 @@
         <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>-15010.77065476431</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>265</v>
-      </c>
-      <c r="J100" t="n">
-        <v>269</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4067,26 +3733,19 @@
         <v>2463.2268</v>
       </c>
       <c r="G101" t="n">
-        <v>-17473.99745476431</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>268</v>
-      </c>
-      <c r="J101" t="n">
-        <v>269</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4108,26 +3767,19 @@
         <v>61</v>
       </c>
       <c r="G102" t="n">
-        <v>-17412.99745476431</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>258</v>
-      </c>
-      <c r="J102" t="n">
-        <v>269</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4149,24 +3801,19 @@
         <v>201</v>
       </c>
       <c r="G103" t="n">
-        <v>-17211.99745476431</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>269</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4188,24 +3835,19 @@
         <v>224.427</v>
       </c>
       <c r="G104" t="n">
-        <v>-17436.42445476431</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>269</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4227,24 +3869,19 @@
         <v>40</v>
       </c>
       <c r="G105" t="n">
-        <v>-17476.42445476431</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>269</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4266,26 +3903,19 @@
         <v>203.666</v>
       </c>
       <c r="G106" t="n">
-        <v>-17680.09045476431</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>262</v>
-      </c>
-      <c r="J106" t="n">
-        <v>269</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4307,26 +3937,19 @@
         <v>193.6694</v>
       </c>
       <c r="G107" t="n">
-        <v>-17873.75985476431</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>261</v>
-      </c>
-      <c r="J107" t="n">
-        <v>269</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4348,26 +3971,19 @@
         <v>191</v>
       </c>
       <c r="G108" t="n">
-        <v>-17682.75985476431</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>258</v>
-      </c>
-      <c r="J108" t="n">
-        <v>269</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4389,26 +4005,19 @@
         <v>42</v>
       </c>
       <c r="G109" t="n">
-        <v>-17640.75985476431</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>266</v>
-      </c>
-      <c r="J109" t="n">
-        <v>269</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
